--- a/mcdx/out.xlsx
+++ b/mcdx/out.xlsx
@@ -341,17 +341,516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>excelVar1</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>80</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2.4</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>21.599999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>27.599999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>28.799999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>34.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>37.199999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>40.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>43.199999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>49.199999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>55.199999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>57.599999999999994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>61.199999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>63.599999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>68.399999999999991</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>69.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>74.399999999999991</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>75.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>79.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>80.399999999999991</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>81.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>86.399999999999991</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>87.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>92.399999999999991</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>98.399999999999991</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>103.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>104.39999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>105.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>106.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>109.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>110.39999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>111.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>112.8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>115.19999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>116.39999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>117.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>118.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
